--- a/testresults.xlsx
+++ b/testresults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Copy\school\unief 4\multi-agent systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Copy\school\unief 4\multi-agent systems\git\KULeuven\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -957,7 +957,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,6 +1667,9 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>231937000</v>
+      </c>
       <c r="H13">
         <v>300</v>
       </c>
@@ -1678,6 +1681,27 @@
       </c>
       <c r="K13">
         <v>300</v>
+      </c>
+      <c r="L13">
+        <v>533554</v>
+      </c>
+      <c r="M13">
+        <v>18742</v>
+      </c>
+      <c r="N13">
+        <v>155</v>
+      </c>
+      <c r="O13">
+        <v>17546472</v>
+      </c>
+      <c r="P13">
+        <v>63741</v>
+      </c>
+      <c r="Q13">
+        <v>1752146</v>
+      </c>
+      <c r="R13">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
